--- a/nfu_knwo_graph/data/c语言考纲.xlsx
+++ b/nfu_knwo_graph/data/c语言考纲.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\93915\Desktop\Django_work\knowledge-graph\nfu_knwo_graph\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA3D852-1899-42F4-9496-F8D7FBB778D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C076172B-B19F-440F-AF5C-54A87916FC1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -568,13 +568,14 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.875" customWidth="1"/>
     <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
